--- a/Riesgo de mercado/8.- Derivatives Risk.xlsx
+++ b/Riesgo de mercado/8.- Derivatives Risk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de mercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE13453-E4A1-1543-B476-1B19BA43BE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE806CE4-5E2E-B04C-BC8B-121E011376ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{442D74AF-57CA-1E4A-8584-05EF9E2B8360}"/>
   </bookViews>
@@ -426,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -495,16 +495,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -514,7 +505,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -874,21 +873,21 @@
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="F7" s="36" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="36" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="J7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
@@ -935,10 +934,10 @@
       <c r="J9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="36">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="37">
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
@@ -964,10 +963,10 @@
       <c r="J10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="38">
         <v>0.34260000000000002</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="39">
         <v>0.17649999999999999</v>
       </c>
     </row>
@@ -990,11 +989,11 @@
       <c r="H11" s="28">
         <v>0.19400000000000001</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
@@ -1030,10 +1029,10 @@
       <c r="J13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="36">
         <v>0.12720000000000001</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1059,10 +1058,10 @@
       <c r="J14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="38">
         <v>0.24540000000000001</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="39">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
@@ -1106,11 +1105,11 @@
       <c r="H16" s="28">
         <v>0.20699999999999999</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
       <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1138,11 +1137,11 @@
       <c r="J18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="36">
         <f>K9*C10</f>
         <v>1.8164</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="37">
         <f>L9*D10</f>
         <v>4.9299999999999997E-2</v>
       </c>
@@ -1167,11 +1166,11 @@
       <c r="J19" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="38">
         <f>K10*C11</f>
         <v>9.9354000000000013</v>
       </c>
-      <c r="L19" s="42">
+      <c r="L19" s="39">
         <f>L10*D11</f>
         <v>4.7654999999999994</v>
       </c>
@@ -1185,11 +1184,11 @@
     </row>
     <row r="20" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J21" s="12" t="s">
@@ -1216,11 +1215,11 @@
       <c r="J22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="36">
         <f>K13*C15</f>
         <v>4.1976000000000004</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="37">
         <f>L13*D15</f>
         <v>0</v>
       </c>
@@ -1229,11 +1228,11 @@
       <c r="J23" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="38">
         <f>K14*C16</f>
         <v>9.3252000000000006</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="39">
         <f>L14*D16</f>
         <v>1.0812000000000002</v>
       </c>
@@ -1258,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38C568B-C6B1-D94C-BA57-94AFEC979D4E}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,21 +1292,21 @@
     </row>
     <row r="6" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="F7" s="36" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
+      <c r="F7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="J7" s="36" t="s">
+      <c r="G7" s="43"/>
+      <c r="H7" s="44"/>
+      <c r="J7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
@@ -1354,10 +1353,10 @@
       <c r="J9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="36">
         <v>0.46739999999999998</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="37">
         <v>0.41689999999999999</v>
       </c>
       <c r="N9" t="s">
@@ -1390,10 +1389,10 @@
       <c r="J10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="38">
         <v>0.56940000000000002</v>
       </c>
-      <c r="L10" s="42">
+      <c r="L10" s="39">
         <v>0.56059999999999999</v>
       </c>
       <c r="N10" t="s">
@@ -1423,11 +1422,11 @@
       <c r="H11" s="28">
         <v>0.28899999999999998</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
@@ -1474,10 +1473,10 @@
       <c r="J13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="36">
         <v>0.41649999999999998</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="37">
         <v>0.33019999999999999</v>
       </c>
     </row>
@@ -1503,10 +1502,10 @@
       <c r="J14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="38">
         <v>0.40960000000000002</v>
       </c>
-      <c r="L14" s="42">
+      <c r="L14" s="39">
         <v>0.39429999999999998</v>
       </c>
     </row>
@@ -1532,7 +1531,7 @@
       <c r="N15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1606,21 +1605,21 @@
     </row>
     <row r="22" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="F23" s="36" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="F23" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="J23" s="36" t="s">
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="J23" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
@@ -1667,10 +1666,10 @@
       <c r="J25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="36">
         <v>0.51439999999999997</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="37">
         <v>0.45219999999999999</v>
       </c>
       <c r="N25" t="s">
@@ -1703,10 +1702,10 @@
       <c r="J26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="38">
         <v>0.57579999999999998</v>
       </c>
-      <c r="L26" s="42">
+      <c r="L26" s="39">
         <v>0.56710000000000005</v>
       </c>
       <c r="N26" t="s">
@@ -1736,11 +1735,11 @@
       <c r="H27" s="28">
         <v>0.28599999999999998</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
@@ -1756,10 +1755,10 @@
       <c r="J28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K28" s="43">
+      <c r="K28" s="40">
         <v>20.2</v>
       </c>
-      <c r="L28" s="44">
+      <c r="L28" s="41">
         <v>20</v>
       </c>
       <c r="N28" t="s">
@@ -1787,10 +1786,10 @@
       <c r="J29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="36">
         <v>0.39200000000000002</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="37">
         <v>0.31359999999999999</v>
       </c>
       <c r="N29" t="s">
@@ -1819,10 +1818,10 @@
       <c r="J30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="38">
         <v>0.40410000000000001</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L30" s="39">
         <v>0.38940000000000002</v>
       </c>
       <c r="N30" t="s">
